--- a/reporte_estadistico/data/energia/metrics_21/metrics_data_vcon.xlsx
+++ b/reporte_estadistico/data/energia/metrics_21/metrics_data_vcon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\energia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\energia\metrics_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -513,7 +516,7 @@
         <v>4271.0987488154979</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -551,7 +554,7 @@
         <v>4640.944790129628</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -589,7 +592,7 @@
         <v>3005.404405556847</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -626,8 +629,9 @@
       <c r="L5">
         <v>1168.738688453795</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -664,8 +668,9 @@
       <c r="L6">
         <v>529.81012758320003</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -703,7 +708,7 @@
         <v>465.35708719376743</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -741,7 +746,7 @@
         <v>14081.35384773274</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
